--- a/Custom_Quick Chip Mode_TW/QuickChip test list.xlsx
+++ b/Custom_Quick Chip Mode_TW/QuickChip test list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vivotech\regress\regression\regress_test\test_tree\Custom_Quick Chip Mode_TW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D26BD5-F4A2-4D74-BF3C-9097D0CEFBF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B86745-1F3E-467F-B7F7-5786E8E1CB98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7905" yWindow="465" windowWidth="13515" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13845" yWindow="885" windowWidth="16380" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="157">
   <si>
     <t>Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3817,6 +3817,16 @@
   </si>
   <si>
     <t>If original QuickChip is enabled, switching to QuickChip HID mode(01-14 command) is prohibited as well.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QCM040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[#CS-4237] Tag DFED5A, bit 1:
+0: Start beep before sending response
+1: Start beep after sending resopnse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4495,11 +4505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5162,6 +5172,20 @@
         <v>153</v>
       </c>
       <c r="D48" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="28" t="s">
         <v>34</v>
       </c>
     </row>
